--- a/src/python/comp-230/invoice_data.xlsx
+++ b/src/python/comp-230/invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3004,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3177,10 +3177,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3200,13 +3200,13 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3229,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3281,10 +3281,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3333,10 +3333,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3385,10 +3385,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3408,13 +3408,13 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3437,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3489,10 +3489,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="7">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
         <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3541,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" s="9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3564,13 +3564,13 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3593,10 +3593,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3616,13 +3616,13 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3645,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3668,13 +3668,13 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C26" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3697,10 +3697,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27" s="9">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3720,13 +3720,13 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28" s="9">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3749,10 +3749,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3801,10 +3801,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C32" s="9">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3853,10 +3853,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C33" s="9">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3876,13 +3876,13 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3905,10 +3905,10 @@
         <v>17</v>
       </c>
       <c r="B35" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C35" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3928,13 +3928,13 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>17.710526315789501</v>
+        <v>17</v>
       </c>
       <c r="B36" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C36" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3954,65 +3954,80 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>18.206766917293201</v>
-      </c>
-      <c r="B37" s="15">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1</v>
-      </c>
+        <v>17.710526315789501</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>18.703007518797001</v>
+        <v>18.206766917293201</v>
       </c>
       <c r="B38" s="15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>19.199248120300801</v>
+        <v>18.703007518797001</v>
       </c>
       <c r="B39" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="16">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>19.695488721804502</v>
+        <v>19.199248120300801</v>
       </c>
       <c r="B40" s="15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" s="16">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>20.191729323308302</v>
+        <v>19.695488721804502</v>
       </c>
       <c r="B41" s="15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41" s="16">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>20.687969924811998</v>
+        <v>20.191729323308302</v>
       </c>
       <c r="B42" s="15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C42" s="16">
         <v>3</v>
@@ -4020,347 +4035,355 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>21.184210526315798</v>
+        <v>20.687969924811998</v>
       </c>
       <c r="B43" s="15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" s="16">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>21.680451127819602</v>
+        <v>21.184210526315798</v>
       </c>
       <c r="B44" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" s="16">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>22.176691729323299</v>
+        <v>21.680451127819602</v>
       </c>
       <c r="B45" s="15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C45" s="16">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>22.672932330827098</v>
+        <v>22.176691729323299</v>
       </c>
       <c r="B46" s="15">
+        <v>11</v>
+      </c>
+      <c r="C46" s="16">
         <v>7</v>
-      </c>
-      <c r="C46" s="16">
-        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>23.169172932330799</v>
+        <v>22.672932330827098</v>
       </c>
       <c r="B47" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>23.665413533834599</v>
+        <v>23.169172932330799</v>
       </c>
       <c r="B48" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C48" s="16">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>24.161654135338399</v>
+        <v>23.665413533834599</v>
       </c>
       <c r="B49" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="16">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>24.657894736842099</v>
+        <v>24.161654135338399</v>
       </c>
       <c r="B50" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C50" s="16">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>25.154135338345899</v>
+        <v>24.657894736842099</v>
       </c>
       <c r="B51" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="16">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>25.650375939849599</v>
+        <v>25.154135338345899</v>
       </c>
       <c r="B52" s="15">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16">
         <v>3</v>
-      </c>
-      <c r="C52" s="16">
-        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>26.146616541353399</v>
+        <v>25.650375939849599</v>
       </c>
       <c r="B53" s="15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C53" s="16">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>26.642857142857199</v>
+        <v>26.146616541353399</v>
       </c>
       <c r="B54" s="15">
+        <v>13</v>
+      </c>
+      <c r="C54" s="16">
         <v>7</v>
-      </c>
-      <c r="C54" s="16">
-        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>27.1390977443609</v>
+        <v>26.642857142857199</v>
       </c>
       <c r="B55" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" s="16">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>27.6353383458647</v>
+        <v>27.1390977443609</v>
       </c>
       <c r="B56" s="15">
         <v>12</v>
       </c>
       <c r="C56" s="16">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>28.1315789473684</v>
+        <v>27.6353383458647</v>
       </c>
       <c r="B57" s="15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C57" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>28.6278195488722</v>
+        <v>28.1315789473684</v>
       </c>
       <c r="B58" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58" s="16">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>29.124060150376</v>
+        <v>28.6278195488722</v>
       </c>
       <c r="B59" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="16">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>29.6203007518797</v>
+        <v>29.124060150376</v>
       </c>
       <c r="B60" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>30.1165413533835</v>
+        <v>29.6203007518797</v>
       </c>
       <c r="B61" s="15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C61" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>30.6127819548872</v>
+        <v>30.1165413533835</v>
       </c>
       <c r="B62" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62" s="16">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>31.109022556391</v>
+        <v>30.6127819548872</v>
       </c>
       <c r="B63" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" s="16">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>31.6052631578948</v>
+        <v>31.109022556391</v>
       </c>
       <c r="B64" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>32.101503759398497</v>
+        <v>31.6052631578948</v>
       </c>
       <c r="B65" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>32.597744360902297</v>
+        <v>32.101503759398497</v>
       </c>
       <c r="B66" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="16">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>33.093984962405997</v>
+        <v>32.597744360902297</v>
       </c>
       <c r="B67" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="16">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>33.590225563909797</v>
+        <v>33.093984962405997</v>
       </c>
       <c r="B68" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C68" s="16">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>34.086466165413498</v>
+        <v>33.590225563909797</v>
       </c>
       <c r="B69" s="15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C69" s="16">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>34.582706766917298</v>
+        <v>34.086466165413498</v>
       </c>
       <c r="B70" s="15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>35.078947368421098</v>
+        <v>34.582706766917298</v>
       </c>
       <c r="B71" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="16">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>35.575187969924798</v>
+        <v>35.078947368421098</v>
       </c>
       <c r="B72" s="15">
+        <v>6</v>
+      </c>
+      <c r="C72" s="16">
         <v>7</v>
-      </c>
-      <c r="C72" s="16">
-        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
+        <v>35.575187969924798</v>
+      </c>
+      <c r="B73" s="15">
+        <v>7</v>
+      </c>
+      <c r="C73" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>36.071428571428598</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B74" s="15">
         <v>1</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C74" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
@@ -4385,6 +4408,9 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/python/comp-230/invoice_data.xlsx
+++ b/src/python/comp-230/invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2628,12 +2628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3346,13 +3347,13 @@
         <v>132</v>
       </c>
       <c r="B33" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C33" s="5">
         <v>108</v>
       </c>
       <c r="D33" s="5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3440,7 +3441,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3722,13 +3723,13 @@
         <v>156</v>
       </c>
       <c r="B57" s="5">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5">
         <v>113</v>
       </c>
       <c r="D57" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/python/comp-230/invoice_data.xlsx
+++ b/src/python/comp-230/invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,6 +2177,39 @@
       </c>
       <c r="E37" s="3"/>
     </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2186,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,13 +2661,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/python/comp-230/invoice_data.xlsx
+++ b/src/python/comp-230/invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -476,11 +476,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -503,7 +501,583 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,6 +1085,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:L13"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="CUST_ID" dataDxfId="28"/>
+    <tableColumn id="2" name="F_NAME" dataDxfId="27"/>
+    <tableColumn id="3" name="L_NAME" dataDxfId="26"/>
+    <tableColumn id="4" name="APT_NUM" dataDxfId="25"/>
+    <tableColumn id="5" name="ST_NUM" dataDxfId="24"/>
+    <tableColumn id="6" name="ST_NAME" dataDxfId="23"/>
+    <tableColumn id="7" name="CITY" dataDxfId="22"/>
+    <tableColumn id="8" name="PROV" dataDxfId="21"/>
+    <tableColumn id="9" name="CTRY" dataDxfId="20"/>
+    <tableColumn id="10" name="P_CODE" dataDxfId="19"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="18"/>
+    <tableColumn id="12" name="EMAIL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D37"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="INV_ID" dataDxfId="15"/>
+    <tableColumn id="2" name="CUST_ID" dataDxfId="14"/>
+    <tableColumn id="3" name="INV_DATE" dataDxfId="13"/>
+    <tableColumn id="4" name="INV_DESC" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="PROD_ID" dataDxfId="9"/>
+    <tableColumn id="2" name="PROD_NAME" dataDxfId="8"/>
+    <tableColumn id="3" name="PROD_DESC" dataDxfId="7"/>
+    <tableColumn id="4" name="SKU" dataDxfId="6"/>
+    <tableColumn id="5" name="UNIT_PRICE" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:D73" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B1:D73"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="INV_ID" dataDxfId="2"/>
+    <tableColumn id="2" name="PROD_ID" dataDxfId="1"/>
+    <tableColumn id="3" name="QTY" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,15 +1434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="11" width="20.7109375" customWidth="1"/>
@@ -854,331 +1488,331 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>1234567890</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>2345678901</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>174</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>58</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>3456789012</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>4567890123</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>202</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>5678901234</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>1407</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>6789012345</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>96</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>7890123456</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>8901234567</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>9012345678</v>
       </c>
       <c r="L10" t="s">
@@ -1186,37 +1820,37 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>444</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>1123456789</v>
       </c>
       <c r="L11" t="s">
@@ -1224,35 +1858,35 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>1112345678</v>
       </c>
       <c r="L12" t="s">
@@ -1260,978 +1894,608 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>68</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>1111234567</v>
       </c>
       <c r="L13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>101</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>43770</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>102</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>43771</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>103</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>43755</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>104</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>43712</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>105</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>43818</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>106</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>43813</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>107</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>43786</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>108</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>43831</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>109</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>43712</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>110</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>43750</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>111</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>43792</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>112</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>43803</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>101</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>43847</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>114</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>102</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>43862</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>115</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>103</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>43805</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>116</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>104</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>43750</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="D17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>117</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>105</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>43736</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D18" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>118</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>106</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>43712</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="D19" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>119</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>107</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>43826</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>120</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>108</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>43859</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="D21" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>121</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>109</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>43834</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="D22" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>122</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>110</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>43791</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="D23" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>123</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>111</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>43792</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="D24" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>124</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>112</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>43739</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>125</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>101</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>43756</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>126</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>102</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>43712</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>127</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>103</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>43707</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>128</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>104</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>43821</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="D29" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>129</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>105</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>43750</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="D30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>130</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>106</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>43860</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="D31" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>131</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>107</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>43866</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D32" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>132</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>108</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <v>43780</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="D33" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>133</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>109</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>43810</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>134</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>110</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>43803</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>135</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>111</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>43738</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>136</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="D36" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>136</v>
+      </c>
+      <c r="B37" s="3">
         <v>112</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>43805</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
+      <c r="D37" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A16" sqref="A16:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,432 +2511,272 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>10011111117</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>1999.99</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>10011111118</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>1999.99</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>3003312336</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>499.99</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>3003312337</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>899.99</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>3003312001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>9.99</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>700004202</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>9999.99</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>700007390</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>5499.99</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>700006501</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>249.99</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>90045634562</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>47499.99</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>90045630001</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>999999.99</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>20042001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>3.99</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>100112004</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>399.99</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>4000078501</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>1299.99</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>114</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>20043537</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>99.99</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="B74" sqref="A74:XFD214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2684,1313 +2788,1020 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>101</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>101</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>101</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>102</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>102</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>103</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>102</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>106</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>103</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>107</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>103</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>111</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>104</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>105</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>104</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>102</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>105</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>114</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>105</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>112</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>106</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>103</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>106</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>109</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>107</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>110</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>114</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>107</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>108</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>17</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>115</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>108</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>102</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>116</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>108</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>106</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>12</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>117</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>109</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>104</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>118</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>109</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>113</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>119</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>110</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>101</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>12</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>120</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>110</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>111</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>21</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>121</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>111</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>107</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>122</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>111</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>104</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>123</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>112</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>105</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>11</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>124</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>112</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>110</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>125</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>113</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>102</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>126</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>113</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>112</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>10</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>127</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>114</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>105</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>76</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>128</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>114</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>114</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>129</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>115</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>113</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>2</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>130</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>115</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>106</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>131</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>116</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>101</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>132</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>118</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>108</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>31</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>133</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>117</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>101</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>19</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>134</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>117</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>105</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>12</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>135</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>118</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>114</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>4</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>136</v>
-      </c>
-      <c r="B37" s="5">
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>136</v>
+      </c>
+      <c r="B37" s="3">
         <v>118</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>109</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>137</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>119</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>108</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>138</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>119</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>111</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>139</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>120</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>112</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>140</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>120</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>102</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>141</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>121</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>109</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>142</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>121</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>114</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>143</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>122</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>107</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>144</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>122</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>103</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>145</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>123</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>111</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>146</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>123</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>107</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>147</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>124</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>104</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>148</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>124</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>110</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>149</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>125</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>109</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>150</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>125</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>101</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>151</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>126</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>102</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>152</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>126</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>103</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>153</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>127</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>113</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>154</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>127</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>107</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>155</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>128</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>112</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>156</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>118</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>113</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>157</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>129</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>102</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>158</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>129</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>107</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>159</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>130</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>108</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>160</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>130</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>113</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>161</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>131</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>101</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>162</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>131</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>105</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>163</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>132</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>108</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>164</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>132</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>109</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>165</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>133</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>104</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>166</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>133</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>105</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>167</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>134</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>106</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>168</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>134</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>101</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>169</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>135</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>112</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>170</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>135</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>105</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>171</v>
       </c>
-      <c r="B72" s="5">
-        <v>136</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="B72" s="3">
+        <v>136</v>
+      </c>
+      <c r="C72" s="3">
         <v>106</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>172</v>
       </c>
-      <c r="B73" s="5">
-        <v>136</v>
-      </c>
-      <c r="C73" s="5">
+      <c r="B73" s="3">
+        <v>136</v>
+      </c>
+      <c r="C73" s="3">
         <v>107</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/python/comp-230/invoice_data.xlsx
+++ b/src/python/comp-230/invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1088,20 +1107,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:L13"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="CUST_ID" dataDxfId="28"/>
-    <tableColumn id="2" name="F_NAME" dataDxfId="27"/>
-    <tableColumn id="3" name="L_NAME" dataDxfId="26"/>
-    <tableColumn id="4" name="APT_NUM" dataDxfId="25"/>
-    <tableColumn id="5" name="ST_NUM" dataDxfId="24"/>
-    <tableColumn id="6" name="ST_NAME" dataDxfId="23"/>
-    <tableColumn id="7" name="CITY" dataDxfId="22"/>
-    <tableColumn id="8" name="PROV" dataDxfId="21"/>
-    <tableColumn id="9" name="CTRY" dataDxfId="20"/>
-    <tableColumn id="10" name="P_CODE" dataDxfId="19"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="18"/>
+    <tableColumn id="1" name="CUST_ID" dataDxfId="29"/>
+    <tableColumn id="2" name="F_NAME" dataDxfId="28"/>
+    <tableColumn id="3" name="L_NAME" dataDxfId="27"/>
+    <tableColumn id="4" name="APT_NUM" dataDxfId="26"/>
+    <tableColumn id="5" name="ST_NUM" dataDxfId="25"/>
+    <tableColumn id="6" name="ST_NAME" dataDxfId="24"/>
+    <tableColumn id="7" name="CITY" dataDxfId="23"/>
+    <tableColumn id="8" name="PROV" dataDxfId="22"/>
+    <tableColumn id="9" name="CTRY" dataDxfId="21"/>
+    <tableColumn id="10" name="P_CODE" dataDxfId="20"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="19"/>
     <tableColumn id="12" name="EMAIL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1109,39 +1128,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:D37"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="INV_ID" dataDxfId="15"/>
-    <tableColumn id="2" name="CUST_ID" dataDxfId="14"/>
-    <tableColumn id="3" name="INV_DATE" dataDxfId="13"/>
-    <tableColumn id="4" name="INV_DESC" dataDxfId="12"/>
+    <tableColumn id="1" name="INV_ID" dataDxfId="16"/>
+    <tableColumn id="2" name="CUST_ID" dataDxfId="15"/>
+    <tableColumn id="3" name="INV_DATE" dataDxfId="14"/>
+    <tableColumn id="4" name="INV_DESC" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PROD_ID" dataDxfId="9"/>
-    <tableColumn id="2" name="PROD_NAME" dataDxfId="8"/>
-    <tableColumn id="3" name="PROD_DESC" dataDxfId="7"/>
-    <tableColumn id="4" name="SKU" dataDxfId="6"/>
-    <tableColumn id="5" name="UNIT_PRICE" dataDxfId="5"/>
+    <tableColumn id="1" name="PROD_ID" dataDxfId="10"/>
+    <tableColumn id="2" name="PROD_NAME" dataDxfId="9"/>
+    <tableColumn id="3" name="PROD_DESC" dataDxfId="8"/>
+    <tableColumn id="4" name="SKU" dataDxfId="7"/>
+    <tableColumn id="5" name="UNIT_PRICE" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:D73" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B1:D73"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="INV_ID" dataDxfId="2"/>
-    <tableColumn id="2" name="PROD_ID" dataDxfId="1"/>
-    <tableColumn id="3" name="QTY" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D73" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D73"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="LINE_ID" dataDxfId="0"/>
+    <tableColumn id="1" name="INV_ID" dataDxfId="3"/>
+    <tableColumn id="2" name="PROD_ID" dataDxfId="2"/>
+    <tableColumn id="3" name="QTY" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1436,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="M4" sqref="M1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,16 +2783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="B74" sqref="A74:XFD214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
